--- a/SocketTesting/SocketTesting/ExcelFile/ExcelFile.xlsx
+++ b/SocketTesting/SocketTesting/ExcelFile/ExcelFile.xlsx
@@ -1,21 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A62791-3B18-4F2B-9BFA-961BC5E2D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_1" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_2" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Titles</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>TC Description</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Click vào nút ClickButton 2 lần</t>
+  </si>
+  <si>
+    <t>Viết text "This is a test" vào Textfield</t>
+  </si>
+  <si>
+    <t>Test_Click</t>
+  </si>
+  <si>
+    <t>Test_Type</t>
+  </si>
+  <si>
+    <t>NumberDevice</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>openGame</t>
+  </si>
+  <si>
+    <t>closeGame</t>
+  </si>
+  <si>
+    <t>ClickButton</t>
+  </si>
+  <si>
+    <t>Click button</t>
+  </si>
+  <si>
+    <t>Start game</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>This is a test</t>
+  </si>
+  <si>
+    <t>Write text</t>
+  </si>
+  <si>
+    <t>Device1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +168,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -40,19 +242,535 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral 2" xfId="1" xr:uid="{C81DD974-15B4-44C7-AF8B-95F5FCF4B460}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Status"/>
+      <sheetName val="GROUP_LoginGame"/>
+      <sheetName val="GROUP_LoginTool"/>
+      <sheetName val="GROUP_SetUserGold"/>
+      <sheetName val="GROUP_JoinChannelBet"/>
+      <sheetName val="GROUP_TestChannelBet"/>
+      <sheetName val="GROUP_Cheat3Cards"/>
+      <sheetName val="GROUP_Cheat2Cards"/>
+      <sheetName val="DataChannel"/>
+      <sheetName val="DataMoney"/>
+      <sheetName val="TC_1"/>
+      <sheetName val="TC_2"/>
+      <sheetName val="TC_3"/>
+      <sheetName val="TC_4"/>
+      <sheetName val="TC_5"/>
+      <sheetName val="TC_6"/>
+      <sheetName val="TC_7"/>
+      <sheetName val="TC_8"/>
+      <sheetName val="TC_9"/>
+      <sheetName val="TC_10"/>
+      <sheetName val="TC_11"/>
+      <sheetName val="TC_12"/>
+      <sheetName val="TC_13"/>
+      <sheetName val="TC_14"/>
+      <sheetName val="TC_15"/>
+      <sheetName val="TC_16"/>
+      <sheetName val="TC_17"/>
+      <sheetName val="TC_18"/>
+      <sheetName val="TC_19"/>
+      <sheetName val="TC_20"/>
+      <sheetName val="TC_21"/>
+      <sheetName val="TC_22"/>
+      <sheetName val="TC_23"/>
+      <sheetName val="TC_24"/>
+      <sheetName val="TC_25"/>
+      <sheetName val="TC_26"/>
+      <sheetName val="TC_27"/>
+      <sheetName val="TC_28"/>
+      <sheetName val="TC_29"/>
+      <sheetName val="TC_30"/>
+      <sheetName val="TC_31"/>
+      <sheetName val="TC_32"/>
+      <sheetName val="TC_33"/>
+      <sheetName val="TC_34"/>
+      <sheetName val="TC_35"/>
+      <sheetName val="TC_36"/>
+      <sheetName val="TC_37"/>
+      <sheetName val="TC_38"/>
+      <sheetName val="TC_39"/>
+      <sheetName val="TC_40"/>
+      <sheetName val="TC_41"/>
+      <sheetName val="TC_42"/>
+      <sheetName val="TC_43"/>
+      <sheetName val="TC_44"/>
+      <sheetName val="TC_45"/>
+      <sheetName val="TC_46"/>
+      <sheetName val="TC_47"/>
+      <sheetName val="TC_48"/>
+      <sheetName val="TC_49"/>
+      <sheetName val="TC_50"/>
+      <sheetName val="TC_51"/>
+      <sheetName val="TC_52"/>
+      <sheetName val="TC_53"/>
+      <sheetName val="TC_54"/>
+      <sheetName val="TC_55"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="51">
+          <cell r="T51" t="str">
+            <v>Random Test Case</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="T52" t="str">
+            <v>Random Test Case</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="T53" t="str">
+            <v>Random Test Case</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="T54" t="str">
+            <v>Random Test Case</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +849,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +901,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +1093,3644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578D216B-6E4B-47AC-A15A-08539AA4A146}">
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="90" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="88.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="str">
+        <f>IF(A57="", "", [1]DataChannel!T51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="str">
+        <f>IF(A58="", "", [1]DataChannel!T52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="str">
+        <f>IF(A59="", "", [1]DataChannel!T53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="str">
+        <f>IF(A60="", "", [1]DataChannel!T54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="str">
+        <f>IF(A61="", "", [1]DataChannel!T55)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC1C3F-7FCE-4CB6-8B1D-703865760CD3}">
+  <dimension ref="A1:AL118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.77734375" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="88" style="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="33" width="9.109375" style="16" collapsed="1"/>
+    <col min="34" max="34" width="9.109375" style="15" collapsed="1"/>
+    <col min="35" max="35" width="9.109375" style="15"/>
+    <col min="36" max="36" width="9.109375" style="15" collapsed="1"/>
+    <col min="37" max="38" width="9.109375" style="15"/>
+    <col min="39" max="16384" width="9.109375" style="15" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="A10" ca="1">INDIRECT("Status!D"&amp;MATCH(B1, Status!C2:C12, 0)+1)</f>
+        <v>Click vào nút ClickButton 2 lần</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="19"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="19"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="19"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="19"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="19"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+    </row>
+    <row r="16" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>1</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>2</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="43"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>3</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="39">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="40"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>4</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>5</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="40">
+        <v>500</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>4</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>5</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="40">
+        <v>500</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A92" s="19"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A98" s="19"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A99" s="19"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A100" s="19"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A101" s="19"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A102" s="19"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="AC102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A103" s="19"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A104" s="19"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="AC104" s="15"/>
+      <c r="AD104" s="15"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A105" s="19"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="AC105" s="15"/>
+      <c r="AD105" s="15"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="AC106" s="15"/>
+      <c r="AD106" s="15"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A107" s="19"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="AC107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A109" s="19"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A110" s="19"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="AC110" s="15"/>
+      <c r="AD110" s="15"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A111" s="19"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A112" s="19"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="AC112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="AC113" s="15"/>
+      <c r="AD113" s="15"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A114" s="19"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="AC114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A115" s="19"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A116" s="19"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="AC116" s="15"/>
+      <c r="AD116" s="15"/>
+      <c r="AE116" s="15"/>
+      <c r="AF116" s="15"/>
+      <c r="AG116" s="15"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="A10:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3AA962-38CC-4274-B050-F1EB6AD2F5EF}">
+  <dimension ref="A1:AL118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.77734375" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="88" style="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="33" width="9.109375" style="16" collapsed="1"/>
+    <col min="34" max="34" width="9.109375" style="15" collapsed="1"/>
+    <col min="35" max="35" width="9.109375" style="15"/>
+    <col min="36" max="36" width="9.109375" style="15" collapsed="1"/>
+    <col min="37" max="38" width="9.109375" style="15"/>
+    <col min="39" max="16384" width="9.109375" style="15" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="str" cm="1">
+        <f t="array" aca="1" ref="A10" ca="1">INDIRECT("Status!D"&amp;MATCH(B1, Status!C2:C12, 0)+1)</f>
+        <v>Viết text "This is a test" vào Textfield</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="19"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="19"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="19"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="19"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="19"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+    </row>
+    <row r="16" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>1</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>2</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="43"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>3</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="39">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="40"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>4</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>5</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="40">
+        <v>500</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>4</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>5</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="40">
+        <v>500</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A92" s="19"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A98" s="19"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A99" s="19"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A100" s="19"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A101" s="19"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A102" s="19"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="AC102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A103" s="19"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A104" s="19"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="AC104" s="15"/>
+      <c r="AD104" s="15"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A105" s="19"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="AC105" s="15"/>
+      <c r="AD105" s="15"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="AC106" s="15"/>
+      <c r="AD106" s="15"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A107" s="19"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="AC107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A109" s="19"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A110" s="19"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="AC110" s="15"/>
+      <c r="AD110" s="15"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A111" s="19"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A112" s="19"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="AC112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="AC113" s="15"/>
+      <c r="AD113" s="15"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A114" s="19"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="AC114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A115" s="19"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="15"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A116" s="19"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="AC116" s="15"/>
+      <c r="AD116" s="15"/>
+      <c r="AE116" s="15"/>
+      <c r="AF116" s="15"/>
+      <c r="AG116" s="15"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E23:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SocketTesting/SocketTesting/ExcelFile/ExcelFile.xlsx
+++ b/SocketTesting/SocketTesting/ExcelFile/ExcelFile.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A62791-3B18-4F2B-9BFA-961BC5E2D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,14 +32,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,9 +55,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
-  <si>
-    <t>test</t>
-  </si>
   <si>
     <t>TC_2</t>
   </si>
@@ -141,13 +137,7 @@
     <t>Start game</t>
   </si>
   <si>
-    <t>TextField</t>
-  </si>
-  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>This is a test</t>
   </si>
   <si>
     <t>Write text</t>
@@ -155,11 +145,20 @@
   <si>
     <t>Device1</t>
   </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>InputField</t>
+  </si>
+  <si>
+    <t>This_is_a_test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,7 +591,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral 2" xfId="1" xr:uid="{C81DD974-15B4-44C7-AF8B-95F5FCF4B460}"/>
+    <cellStyle name="Neutral 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,11 +608,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Status"/>
       <sheetName val="GROUP_LoginGame"/>
@@ -849,23 +845,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -901,23 +880,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1093,363 +1055,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578D216B-6E4B-47AC-A15A-08539AA4A146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="90" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="88.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="88.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="C9" s="8"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="str">
         <f>IF(A57="", "", [1]DataChannel!T51)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="str">
         <f>IF(A58="", "", [1]DataChannel!T52)</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="str">
         <f>IF(A59="", "", [1]DataChannel!T53)</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D60" s="4" t="str">
         <f>IF(A60="", "", [1]DataChannel!T54)</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="str">
         <f>IF(A61="", "", [1]DataChannel!T55)</f>
         <v/>
@@ -1461,89 +1423,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC1C3F-7FCE-4CB6-8B1D-703865760CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="88" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.6640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.77734375" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="6.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.77734375" style="16" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="7.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="33" width="9.109375" style="16" collapsed="1"/>
-    <col min="34" max="34" width="9.109375" style="15" collapsed="1"/>
-    <col min="35" max="35" width="9.109375" style="15"/>
-    <col min="36" max="36" width="9.109375" style="15" collapsed="1"/>
-    <col min="37" max="38" width="9.109375" style="15"/>
-    <col min="39" max="16384" width="9.109375" style="15" collapsed="1"/>
+    <col min="26" max="33" width="9.140625" style="16" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="15" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="15"/>
+    <col min="36" max="36" width="9.140625" style="15" collapsed="1"/>
+    <col min="37" max="38" width="9.140625" style="15"/>
+    <col min="39" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -1569,16 +1530,16 @@
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
     </row>
-    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">INDIRECT("Status!D"&amp;MATCH(B1, Status!C2:C12, 0)+1)</f>
         <v>Click vào nút ClickButton 2 lần</v>
@@ -1605,7 +1566,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="34"/>
       <c r="C11" s="33"/>
@@ -1627,7 +1588,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -1649,7 +1610,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="34"/>
       <c r="C13" s="33"/>
@@ -1671,7 +1632,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -1693,7 +1654,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -1715,7 +1676,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -1742,27 +1703,27 @@
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
     </row>
-    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1770,19 +1731,19 @@
       <c r="E18" s="20"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>1</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
@@ -1795,15 +1756,15 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>2</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="43"/>
@@ -1818,18 +1779,18 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>3</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="39">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="E21" s="44"/>
       <c r="X21" s="15"/>
@@ -1843,7 +1804,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="16"/>
@@ -1859,21 +1820,21 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>4</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>25</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>26</v>
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
@@ -1886,15 +1847,15 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>5</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="40">
         <v>500</v>
@@ -1911,18 +1872,18 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>4</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="43"/>
       <c r="X25" s="15"/>
@@ -1936,18 +1897,18 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>5</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="40">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="44"/>
       <c r="W26" s="15"/>
@@ -1962,7 +1923,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="16"/>
@@ -1979,7 +1940,7 @@
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1995,7 +1956,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2011,7 +1972,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2027,7 +1988,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2043,7 +2004,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2059,7 +2020,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2075,7 +2036,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -2091,7 +2052,7 @@
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2107,7 +2068,7 @@
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2123,7 +2084,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2139,7 +2100,7 @@
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2155,7 +2116,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -2171,7 +2132,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -2187,7 +2148,7 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2203,7 +2164,7 @@
       <c r="AF41" s="15"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -2219,7 +2180,7 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -2235,7 +2196,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -2251,7 +2212,7 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -2267,7 +2228,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -2283,7 +2244,7 @@
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -2299,7 +2260,7 @@
       <c r="AF47" s="15"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2315,7 +2276,7 @@
       <c r="AF48" s="15"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -2331,7 +2292,7 @@
       <c r="AF49" s="15"/>
       <c r="AG49" s="15"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2342,7 +2303,7 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="15"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -2353,7 +2314,7 @@
       <c r="AF51" s="15"/>
       <c r="AG51" s="15"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -2364,7 +2325,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -2375,7 +2336,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -2386,7 +2347,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2397,7 +2358,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -2408,7 +2369,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2419,7 +2380,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2430,7 +2391,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2441,7 +2402,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2452,7 +2413,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -2463,7 +2424,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2474,7 +2435,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -2485,7 +2446,7 @@
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2496,7 +2457,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="15"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -2507,7 +2468,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="15"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2518,7 +2479,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="15"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2529,7 +2490,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="15"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2540,7 +2501,7 @@
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2551,7 +2512,7 @@
       <c r="AF69" s="15"/>
       <c r="AG69" s="15"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2562,7 +2523,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="15"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2573,7 +2534,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="15"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2584,7 +2545,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="15"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -2595,7 +2556,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -2606,7 +2567,7 @@
       <c r="AF74" s="15"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -2617,7 +2578,7 @@
       <c r="AF75" s="15"/>
       <c r="AG75" s="15"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -2628,7 +2589,7 @@
       <c r="AF76" s="15"/>
       <c r="AG76" s="15"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -2639,7 +2600,7 @@
       <c r="AF77" s="15"/>
       <c r="AG77" s="15"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -2650,7 +2611,7 @@
       <c r="AF78" s="15"/>
       <c r="AG78" s="15"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -2661,7 +2622,7 @@
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2672,7 +2633,7 @@
       <c r="AF80" s="15"/>
       <c r="AG80" s="15"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -2683,7 +2644,7 @@
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2694,7 +2655,7 @@
       <c r="AF82" s="15"/>
       <c r="AG82" s="15"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -2705,7 +2666,7 @@
       <c r="AF83" s="15"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -2716,7 +2677,7 @@
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -2727,7 +2688,7 @@
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -2738,7 +2699,7 @@
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -2749,7 +2710,7 @@
       <c r="AF87" s="15"/>
       <c r="AG87" s="15"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -2760,7 +2721,7 @@
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -2771,7 +2732,7 @@
       <c r="AF89" s="15"/>
       <c r="AG89" s="15"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -2782,7 +2743,7 @@
       <c r="AF90" s="15"/>
       <c r="AG90" s="15"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -2793,7 +2754,7 @@
       <c r="AF91" s="15"/>
       <c r="AG91" s="15"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2804,7 +2765,7 @@
       <c r="AF92" s="15"/>
       <c r="AG92" s="15"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -2815,7 +2776,7 @@
       <c r="AF93" s="15"/>
       <c r="AG93" s="15"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -2826,7 +2787,7 @@
       <c r="AF94" s="15"/>
       <c r="AG94" s="15"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -2837,7 +2798,7 @@
       <c r="AF95" s="15"/>
       <c r="AG95" s="15"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -2848,7 +2809,7 @@
       <c r="AF96" s="15"/>
       <c r="AG96" s="15"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -2859,7 +2820,7 @@
       <c r="AF97" s="15"/>
       <c r="AG97" s="15"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -2870,7 +2831,7 @@
       <c r="AF98" s="15"/>
       <c r="AG98" s="15"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -2881,7 +2842,7 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -2892,7 +2853,7 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -2903,7 +2864,7 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -2914,7 +2875,7 @@
       <c r="AF102" s="15"/>
       <c r="AG102" s="15"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -2925,7 +2886,7 @@
       <c r="AF103" s="15"/>
       <c r="AG103" s="15"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -2936,7 +2897,7 @@
       <c r="AF104" s="15"/>
       <c r="AG104" s="15"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -2947,7 +2908,7 @@
       <c r="AF105" s="15"/>
       <c r="AG105" s="15"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -2958,7 +2919,7 @@
       <c r="AF106" s="15"/>
       <c r="AG106" s="15"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -2969,7 +2930,7 @@
       <c r="AF107" s="15"/>
       <c r="AG107" s="15"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -2980,7 +2941,7 @@
       <c r="AF108" s="15"/>
       <c r="AG108" s="15"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -2991,7 +2952,7 @@
       <c r="AF109" s="15"/>
       <c r="AG109" s="15"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3002,7 +2963,7 @@
       <c r="AF110" s="15"/>
       <c r="AG110" s="15"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3013,7 +2974,7 @@
       <c r="AF111" s="15"/>
       <c r="AG111" s="15"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3024,7 +2985,7 @@
       <c r="AF112" s="15"/>
       <c r="AG112" s="15"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3035,7 +2996,7 @@
       <c r="AF113" s="15"/>
       <c r="AG113" s="15"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3046,7 +3007,7 @@
       <c r="AF114" s="15"/>
       <c r="AG114" s="15"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -3057,7 +3018,7 @@
       <c r="AF115" s="15"/>
       <c r="AG115" s="15"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -3068,7 +3029,7 @@
       <c r="AF116" s="15"/>
       <c r="AG116" s="15"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -3079,7 +3040,7 @@
       <c r="AF117" s="15"/>
       <c r="AG117" s="15"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -3099,89 +3060,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3AA962-38CC-4274-B050-F1EB6AD2F5EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="88" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.6640625" style="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.77734375" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.77734375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="6.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.7109375" style="16" hidden="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="12" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.88671875" style="16" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.77734375" style="16" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="7.21875" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.28515625" style="16" hidden="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="33" width="9.109375" style="16" collapsed="1"/>
-    <col min="34" max="34" width="9.109375" style="15" collapsed="1"/>
-    <col min="35" max="35" width="9.109375" style="15"/>
-    <col min="36" max="36" width="9.109375" style="15" collapsed="1"/>
-    <col min="37" max="38" width="9.109375" style="15"/>
-    <col min="39" max="16384" width="9.109375" style="15" collapsed="1"/>
+    <col min="26" max="33" width="9.140625" style="16" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="15" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="15"/>
+    <col min="36" max="36" width="9.140625" style="15" collapsed="1"/>
+    <col min="37" max="38" width="9.140625" style="15"/>
+    <col min="39" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -3207,16 +3167,16 @@
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
     </row>
-    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">INDIRECT("Status!D"&amp;MATCH(B1, Status!C2:C12, 0)+1)</f>
         <v>Viết text "This is a test" vào Textfield</v>
@@ -3243,7 +3203,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="34"/>
       <c r="C11" s="33"/>
@@ -3265,7 +3225,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -3287,7 +3247,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="34"/>
       <c r="C13" s="33"/>
@@ -3309,7 +3269,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -3331,7 +3291,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -3353,7 +3313,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:33" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -3380,27 +3340,27 @@
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
     </row>
-    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3408,19 +3368,19 @@
       <c r="E18" s="20"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>1</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
@@ -3433,15 +3393,15 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>2</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="43"/>
@@ -3456,18 +3416,18 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>3</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="39">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="E21" s="44"/>
       <c r="X21" s="15"/>
@@ -3481,7 +3441,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="16"/>
@@ -3497,21 +3457,21 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>4</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>28</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
@@ -3524,15 +3484,15 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>5</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="40">
         <v>500</v>
@@ -3549,18 +3509,18 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>4</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>30</v>
       </c>
       <c r="E25" s="43"/>
       <c r="X25" s="15"/>
@@ -3574,18 +3534,18 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>5</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="40">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="44"/>
       <c r="W26" s="15"/>
@@ -3600,7 +3560,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="16"/>
@@ -3617,7 +3577,7 @@
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3633,7 +3593,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -3649,7 +3609,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -3665,7 +3625,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -3681,7 +3641,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3697,7 +3657,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -3713,7 +3673,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3729,7 +3689,7 @@
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -3745,7 +3705,7 @@
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -3761,7 +3721,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -3777,7 +3737,7 @@
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -3793,7 +3753,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -3809,7 +3769,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -3825,7 +3785,7 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -3841,7 +3801,7 @@
       <c r="AF41" s="15"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3857,7 +3817,7 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3873,7 +3833,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3889,7 +3849,7 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3905,7 +3865,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3921,7 +3881,7 @@
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3937,7 +3897,7 @@
       <c r="AF47" s="15"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -3953,7 +3913,7 @@
       <c r="AF48" s="15"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3969,7 +3929,7 @@
       <c r="AF49" s="15"/>
       <c r="AG49" s="15"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -3980,7 +3940,7 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="15"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -3991,7 +3951,7 @@
       <c r="AF51" s="15"/>
       <c r="AG51" s="15"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -4002,7 +3962,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -4013,7 +3973,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -4024,7 +3984,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4035,7 +3995,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4046,7 +4006,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4057,7 +4017,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4068,7 +4028,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4079,7 +4039,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4090,7 +4050,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4101,7 +4061,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4112,7 +4072,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -4123,7 +4083,7 @@
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -4134,7 +4094,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="15"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -4145,7 +4105,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="15"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -4156,7 +4116,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="15"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -4167,7 +4127,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="15"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -4178,7 +4138,7 @@
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -4189,7 +4149,7 @@
       <c r="AF69" s="15"/>
       <c r="AG69" s="15"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -4200,7 +4160,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="15"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -4211,7 +4171,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="15"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -4222,7 +4182,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="15"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -4233,7 +4193,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -4244,7 +4204,7 @@
       <c r="AF74" s="15"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -4255,7 +4215,7 @@
       <c r="AF75" s="15"/>
       <c r="AG75" s="15"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -4266,7 +4226,7 @@
       <c r="AF76" s="15"/>
       <c r="AG76" s="15"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -4277,7 +4237,7 @@
       <c r="AF77" s="15"/>
       <c r="AG77" s="15"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -4288,7 +4248,7 @@
       <c r="AF78" s="15"/>
       <c r="AG78" s="15"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -4299,7 +4259,7 @@
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -4310,7 +4270,7 @@
       <c r="AF80" s="15"/>
       <c r="AG80" s="15"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -4321,7 +4281,7 @@
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -4332,7 +4292,7 @@
       <c r="AF82" s="15"/>
       <c r="AG82" s="15"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -4343,7 +4303,7 @@
       <c r="AF83" s="15"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -4354,7 +4314,7 @@
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -4365,7 +4325,7 @@
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -4376,7 +4336,7 @@
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -4387,7 +4347,7 @@
       <c r="AF87" s="15"/>
       <c r="AG87" s="15"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -4398,7 +4358,7 @@
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -4409,7 +4369,7 @@
       <c r="AF89" s="15"/>
       <c r="AG89" s="15"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -4420,7 +4380,7 @@
       <c r="AF90" s="15"/>
       <c r="AG90" s="15"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -4431,7 +4391,7 @@
       <c r="AF91" s="15"/>
       <c r="AG91" s="15"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -4442,7 +4402,7 @@
       <c r="AF92" s="15"/>
       <c r="AG92" s="15"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -4453,7 +4413,7 @@
       <c r="AF93" s="15"/>
       <c r="AG93" s="15"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -4464,7 +4424,7 @@
       <c r="AF94" s="15"/>
       <c r="AG94" s="15"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -4475,7 +4435,7 @@
       <c r="AF95" s="15"/>
       <c r="AG95" s="15"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -4486,7 +4446,7 @@
       <c r="AF96" s="15"/>
       <c r="AG96" s="15"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -4497,7 +4457,7 @@
       <c r="AF97" s="15"/>
       <c r="AG97" s="15"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -4508,7 +4468,7 @@
       <c r="AF98" s="15"/>
       <c r="AG98" s="15"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -4519,7 +4479,7 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -4530,7 +4490,7 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -4541,7 +4501,7 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -4552,7 +4512,7 @@
       <c r="AF102" s="15"/>
       <c r="AG102" s="15"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -4563,7 +4523,7 @@
       <c r="AF103" s="15"/>
       <c r="AG103" s="15"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -4574,7 +4534,7 @@
       <c r="AF104" s="15"/>
       <c r="AG104" s="15"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -4585,7 +4545,7 @@
       <c r="AF105" s="15"/>
       <c r="AG105" s="15"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -4596,7 +4556,7 @@
       <c r="AF106" s="15"/>
       <c r="AG106" s="15"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -4607,7 +4567,7 @@
       <c r="AF107" s="15"/>
       <c r="AG107" s="15"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -4618,7 +4578,7 @@
       <c r="AF108" s="15"/>
       <c r="AG108" s="15"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -4629,7 +4589,7 @@
       <c r="AF109" s="15"/>
       <c r="AG109" s="15"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -4640,7 +4600,7 @@
       <c r="AF110" s="15"/>
       <c r="AG110" s="15"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -4651,7 +4611,7 @@
       <c r="AF111" s="15"/>
       <c r="AG111" s="15"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -4662,7 +4622,7 @@
       <c r="AF112" s="15"/>
       <c r="AG112" s="15"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -4673,7 +4633,7 @@
       <c r="AF113" s="15"/>
       <c r="AG113" s="15"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -4684,7 +4644,7 @@
       <c r="AF114" s="15"/>
       <c r="AG114" s="15"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -4695,7 +4655,7 @@
       <c r="AF115" s="15"/>
       <c r="AG115" s="15"/>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -4706,7 +4666,7 @@
       <c r="AF116" s="15"/>
       <c r="AG116" s="15"/>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -4717,7 +4677,7 @@
       <c r="AF117" s="15"/>
       <c r="AG117" s="15"/>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
